--- a/fhir/indisa/StructureDefinition-hoursOfOperation.xlsx
+++ b/fhir/indisa/StructureDefinition-hoursOfOperation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="81">
   <si>
     <t>Path</t>
   </si>
@@ -140,7 +140,7 @@
     <t>HoursOfOperation</t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Hours of attention of the schedule.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -183,6 +183,9 @@
 </t>
   </si>
   <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -261,7 +264,7 @@
     <t>endTime</t>
   </si>
   <si>
-    <t>https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition/hoursOfOperation</t>
+    <t>https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition-HoursOfOperation</t>
   </si>
   <si>
     <t>base64Binary
@@ -423,42 +426,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.33203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="36.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="17.6015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -802,7 +805,7 @@
         <v>36</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -841,19 +844,19 @@
         <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>38</v>
@@ -876,7 +879,7 @@
         <v>51</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
@@ -904,7 +907,7 @@
         <v>36</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -955,7 +958,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>38</v>
@@ -975,7 +978,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1075,7 +1078,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1104,7 +1107,7 @@
         <v>36</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1143,19 +1146,19 @@
         <v>37</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
@@ -1175,7 +1178,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1198,16 +1201,16 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1215,7 +1218,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>37</v>
@@ -1257,7 +1260,7 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>45</v>
@@ -1272,12 +1275,12 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1300,16 +1303,16 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1359,7 +1362,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1371,10 +1374,10 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" hidden="true">
@@ -1382,7 +1385,7 @@
         <v>51</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>37</v>
@@ -1410,7 +1413,7 @@
         <v>36</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1461,7 +1464,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1481,7 +1484,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1581,7 +1584,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1610,7 +1613,7 @@
         <v>36</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1649,19 +1652,19 @@
         <v>37</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1681,7 +1684,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1704,16 +1707,16 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -1721,7 +1724,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>37</v>
@@ -1763,7 +1766,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>45</v>
@@ -1778,12 +1781,12 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1806,13 +1809,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1863,7 +1866,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -1875,10 +1878,10 @@
         <v>37</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" hidden="true">
@@ -1886,7 +1889,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>37</v>
@@ -1914,7 +1917,7 @@
         <v>36</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1965,7 +1968,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
@@ -1985,7 +1988,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2085,7 +2088,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2114,7 +2117,7 @@
         <v>36</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2153,19 +2156,19 @@
         <v>37</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2185,7 +2188,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2208,16 +2211,16 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2225,7 +2228,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>37</v>
@@ -2267,7 +2270,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>45</v>
@@ -2282,12 +2285,12 @@
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2310,13 +2313,13 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2367,7 +2370,7 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
@@ -2379,15 +2382,15 @@
         <v>37</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2410,16 +2413,16 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -2427,7 +2430,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>37</v>
@@ -2469,7 +2472,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>45</v>
@@ -2484,12 +2487,12 @@
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2512,13 +2515,13 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2569,7 +2572,7 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
@@ -2581,10 +2584,10 @@
         <v>37</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
